--- a/VersionRecords/Version 5.1.9 20161222/版本Bug和特性计划及评审表v5.1.9_磐石组.xlsx
+++ b/VersionRecords/Version 5.1.9 20161222/版本Bug和特性计划及评审表v5.1.9_磐石组.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.1.9 20161222\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="751"/>
+    <workbookView xWindow="3075" yWindow="195" windowWidth="28695" windowHeight="13050" tabRatio="751" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.1.9 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,12 +24,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="6" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="79">
   <si>
     <t>No</t>
   </si>
@@ -251,13 +246,74 @@
   <si>
     <t>执行结果及报错补救方案</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>systemconfig.properties</t>
+  </si>
+  <si>
+    <t>新增</t>
+  </si>
+  <si>
+    <t>mogoroom-bs</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.1.9</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>前海征信接口查询参数配置</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产环境</t>
+  </si>
+  <si>
+    <t>张浩</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王岩</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter.sysconfig.risk_txt_record=E:/00000
+filter.sysconfig.risk_qh_url = https://test-qhzx.pingan.com.cn:5443/do/dmz
+filter.sysconfig.risk_qh_username = V_PA025_QHCS_DCS
+filter.sysconfig.risk_qh_password = weblogic1
+filter.sysconfig.risk_qh_keyStr = SK803@!QLF-D25WEDA5E52DA
+filter.sysconfig.risk_qh_stg_cer = D:/Key/credoo_stg.cer
+filter.sysconfig.risk_qh_stg_jks = D:/Key/credoo_stg.jks
+filter.sysconfig.risk_qh_orgcode = 10000000
+filter.sysconfig.risk_qh_chnlid = qhcs-dcs
+filter.sysconfig.risk_qh_authcode = CRT001A2
+filter.sysconfig.risk_qh_privateKeyCode = qhzx_stg</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter.sysconfig.risk_txt_record=前海接口调用日志保存路径
+filter.sysconfig.risk_qh_url = 前海征信接口地址
+filter.sysconfig.risk_qh_username =前海征信接口用户名
+filter.sysconfig.risk_qh_password = 前海征信接口密码
+filter.sysconfig.risk_qh_keyStr = 前海加密字符串
+filter.sysconfig.risk_qh_stg_cer =前海公钥位置及名称
+filter.sysconfig.risk_qh_stg_jks = 前海私钥位置及名称
+filter.sysconfig.risk_qh_orgcode = 机构代码
+filter.sysconfig.risk_qh_chnlid = 前海接入系统ID
+filter.sysconfig.risk_qh_authcode = 前海授权码
+filter.sysconfig.risk_qh_privateKeyCode = 前海私钥加密字符串</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>磐石组</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="28" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -682,7 +738,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -958,6 +1014,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -972,7 +1034,7 @@
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
+    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1341,14 +1403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
@@ -1374,7 +1436,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="27">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +1501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A2" s="77"/>
       <c r="B2" s="77"/>
       <c r="C2" s="77"/>
@@ -1463,7 +1525,7 @@
       <c r="U2" s="82"/>
       <c r="V2" s="54"/>
     </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1">
       <c r="A3" s="36"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -1487,7 +1549,7 @@
       <c r="U3" s="53"/>
       <c r="V3" s="54"/>
     </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A4" s="36"/>
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
@@ -1511,7 +1573,7 @@
       <c r="U4" s="55"/>
       <c r="V4" s="54"/>
     </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -1535,7 +1597,7 @@
       <c r="U5" s="55"/>
       <c r="V5" s="54"/>
     </row>
-    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -1559,7 +1621,7 @@
       <c r="U6" s="55"/>
       <c r="V6" s="54"/>
     </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -1583,7 +1645,7 @@
       <c r="U7" s="55"/>
       <c r="V7" s="54"/>
     </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -1607,7 +1669,7 @@
       <c r="U8" s="55"/>
       <c r="V8" s="54"/>
     </row>
-    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -1631,7 +1693,7 @@
       <c r="U9" s="55"/>
       <c r="V9" s="54"/>
     </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -1655,7 +1717,7 @@
       <c r="U10" s="55"/>
       <c r="V10" s="54"/>
     </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -1679,7 +1741,7 @@
       <c r="U11" s="55"/>
       <c r="V11" s="54"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -1703,7 +1765,7 @@
       <c r="U12" s="55"/>
       <c r="V12" s="54"/>
     </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -1727,7 +1789,7 @@
       <c r="U13" s="55"/>
       <c r="V13" s="54"/>
     </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -1751,7 +1813,7 @@
       <c r="U14" s="55"/>
       <c r="V14" s="54"/>
     </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -1775,7 +1837,7 @@
       <c r="U15" s="55"/>
       <c r="V15" s="54"/>
     </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -1799,7 +1861,7 @@
       <c r="U16" s="57"/>
       <c r="V16" s="54"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:21" ht="16.5">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -1822,7 +1884,7 @@
       <c r="T17" s="44"/>
       <c r="U17" s="45"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:21" ht="16.5">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -1845,7 +1907,7 @@
       <c r="T18" s="44"/>
       <c r="U18" s="45"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:21" ht="16.5">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -1868,7 +1930,7 @@
       <c r="T19" s="44"/>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:21" ht="16.5">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -1891,7 +1953,7 @@
       <c r="T20" s="44"/>
       <c r="U20" s="55"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:21" ht="16.5">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -1914,7 +1976,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="55"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:21" ht="16.5">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -1937,7 +1999,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="55"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:21" ht="16.5">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -1960,7 +2022,7 @@
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:21" ht="16.5">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -1983,7 +2045,7 @@
       <c r="T24" s="60"/>
       <c r="U24" s="59"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:21" ht="16.5">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2006,7 +2068,7 @@
       <c r="T25" s="61"/>
       <c r="U25" s="59"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:21" ht="16.5">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2029,7 +2091,7 @@
       <c r="T26" s="60"/>
       <c r="U26" s="59"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:21" ht="16.5">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2052,7 +2114,7 @@
       <c r="T27" s="60"/>
       <c r="U27" s="59"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:21" ht="16.5">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2075,7 +2137,7 @@
       <c r="T28" s="56"/>
       <c r="U28" s="47"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:21" ht="16.5">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2098,7 +2160,7 @@
       <c r="T29" s="44"/>
       <c r="U29" s="55"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:21" ht="16.5">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2121,7 +2183,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="55"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:21" ht="16.5">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2144,7 +2206,7 @@
       <c r="T31" s="44"/>
       <c r="U31" s="55"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:21" ht="16.5">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2167,7 +2229,7 @@
       <c r="T32" s="60"/>
       <c r="U32" s="59"/>
     </row>
-    <row r="33" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:21" ht="49.5">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2192,7 +2254,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:21" ht="16.5">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2215,7 +2277,7 @@
       <c r="T34" s="44"/>
       <c r="U34" s="55"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:21" ht="16.5">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2238,7 +2300,7 @@
       <c r="T35" s="44"/>
       <c r="U35" s="55"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:21" ht="16.5">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2261,7 +2323,7 @@
       <c r="T36" s="44"/>
       <c r="U36" s="55"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:21" ht="16.5">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2284,7 +2346,7 @@
       <c r="T37" s="44"/>
       <c r="U37" s="55"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:21" ht="16.5">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2307,7 +2369,7 @@
       <c r="T38" s="44"/>
       <c r="U38" s="55"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:21" ht="16.5">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2330,7 +2392,7 @@
       <c r="T39" s="44"/>
       <c r="U39" s="55"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:21" ht="16.5">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2353,7 +2415,7 @@
       <c r="T40" s="44"/>
       <c r="U40" s="55"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:21" ht="16.5">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2376,7 +2438,7 @@
       <c r="T41" s="44"/>
       <c r="U41" s="55"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:21" ht="16.5">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2399,7 +2461,7 @@
       <c r="T42" s="44"/>
       <c r="U42" s="55"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:21" ht="16.5">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2422,7 +2484,7 @@
       <c r="T43" s="44"/>
       <c r="U43" s="55"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:21" ht="16.5">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2445,7 +2507,7 @@
       <c r="T44" s="56"/>
       <c r="U44" s="55"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:21" ht="16.5">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2468,7 +2530,7 @@
       <c r="T45" s="56"/>
       <c r="U45" s="55"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:21" ht="16.5">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2491,7 +2553,7 @@
       <c r="T46" s="44"/>
       <c r="U46" s="45"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:21" ht="16.5">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2514,7 +2576,7 @@
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:21" ht="16.5">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2537,7 +2599,7 @@
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:21" ht="16.5">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2560,7 +2622,7 @@
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:21" ht="16.5">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -2583,7 +2645,7 @@
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:21" ht="16.5">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -2606,7 +2668,7 @@
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:21" ht="16.5">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -2629,7 +2691,7 @@
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:21" ht="16.5">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -2652,7 +2714,7 @@
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:21" ht="16.5">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -2675,7 +2737,7 @@
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:21" ht="16.5">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -2698,7 +2760,7 @@
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:21" ht="16.5">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -2721,7 +2783,7 @@
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:21" ht="16.5">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -2744,7 +2806,7 @@
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:21" ht="16.5">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -2767,7 +2829,7 @@
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:21" ht="16.5">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -2790,7 +2852,7 @@
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:21" ht="16.5">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -2813,7 +2875,7 @@
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:21" ht="16.5">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -2836,7 +2898,7 @@
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:21" ht="16.5">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -2859,7 +2921,7 @@
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:21" ht="16.5">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -2882,7 +2944,7 @@
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:21" ht="16.5">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -2905,7 +2967,7 @@
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:21" ht="16.5">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -2928,7 +2990,7 @@
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:21" ht="16.5">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -2951,7 +3013,7 @@
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:21" ht="16.5">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -2974,7 +3036,7 @@
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:21" ht="16.5">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -2997,7 +3059,7 @@
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:21" ht="16.5">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3020,7 +3082,7 @@
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:21" ht="16.5">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3043,7 +3105,7 @@
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:21" ht="16.5">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3066,7 +3128,7 @@
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:21" ht="16.5">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3089,7 +3151,7 @@
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:21" ht="16.5">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3112,7 +3174,7 @@
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:21" ht="16.5">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3135,7 +3197,7 @@
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:21">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3158,7 +3220,7 @@
       <c r="T75" s="44"/>
       <c r="U75" s="45"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:21">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3181,7 +3243,7 @@
       <c r="T76" s="44"/>
       <c r="U76" s="45"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:21">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3204,7 +3266,7 @@
       <c r="T77" s="44"/>
       <c r="U77" s="45"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:21">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3227,7 +3289,7 @@
       <c r="T78" s="44"/>
       <c r="U78" s="45"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:21">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3250,7 +3312,7 @@
       <c r="T79" s="44"/>
       <c r="U79" s="45"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:21">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3273,7 +3335,7 @@
       <c r="T80" s="44"/>
       <c r="U80" s="45"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:21">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3296,7 +3358,7 @@
       <c r="T81" s="44"/>
       <c r="U81" s="45"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:21">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3319,7 +3381,7 @@
       <c r="T82" s="44"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:21">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3342,7 +3404,7 @@
       <c r="T83" s="44"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:21">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3365,7 +3427,7 @@
       <c r="T84" s="44"/>
       <c r="U84" s="45"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:21">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -3388,7 +3450,7 @@
       <c r="T85" s="44"/>
       <c r="U85" s="45"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:21">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -3411,7 +3473,7 @@
       <c r="T86" s="44"/>
       <c r="U86" s="45"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:21">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -3434,7 +3496,7 @@
       <c r="T87" s="44"/>
       <c r="U87" s="45"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:21">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -3457,7 +3519,7 @@
       <c r="T88" s="44"/>
       <c r="U88" s="45"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:21">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -3480,7 +3542,7 @@
       <c r="T89" s="44"/>
       <c r="U89" s="45"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:21">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -3503,7 +3565,7 @@
       <c r="T90" s="44"/>
       <c r="U90" s="45"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:21">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -3526,7 +3588,7 @@
       <c r="T91" s="44"/>
       <c r="U91" s="45"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:21">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -3549,7 +3611,7 @@
       <c r="T92" s="44"/>
       <c r="U92" s="45"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:21">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -3572,7 +3634,7 @@
       <c r="T93" s="44"/>
       <c r="U93" s="45"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:21">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -3595,7 +3657,7 @@
       <c r="T94" s="44"/>
       <c r="U94" s="45"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:21">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -3618,7 +3680,7 @@
       <c r="T95" s="44"/>
       <c r="U95" s="45"/>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:21">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -3641,7 +3703,7 @@
       <c r="T96" s="44"/>
       <c r="U96" s="45"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:21">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -3664,7 +3726,7 @@
       <c r="T97" s="44"/>
       <c r="U97" s="45"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:21">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -3687,7 +3749,7 @@
       <c r="T98" s="44"/>
       <c r="U98" s="45"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:21">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -3710,7 +3772,7 @@
       <c r="T99" s="44"/>
       <c r="U99" s="45"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:21">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -3733,7 +3795,7 @@
       <c r="T100" s="44"/>
       <c r="U100" s="45"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:21">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -3756,7 +3818,7 @@
       <c r="T101" s="44"/>
       <c r="U101" s="45"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:21">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -3779,7 +3841,7 @@
       <c r="T102" s="44"/>
       <c r="U102" s="45"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:21">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -3802,7 +3864,7 @@
       <c r="T103" s="44"/>
       <c r="U103" s="45"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:21">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -3825,7 +3887,7 @@
       <c r="T104" s="44"/>
       <c r="U104" s="45"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:21">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -3848,7 +3910,7 @@
       <c r="T105" s="44"/>
       <c r="U105" s="45"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:21">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -3871,7 +3933,7 @@
       <c r="T106" s="44"/>
       <c r="U106" s="45"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:21">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -3894,7 +3956,7 @@
       <c r="T107" s="44"/>
       <c r="U107" s="45"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:21">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -3917,7 +3979,7 @@
       <c r="T108" s="44"/>
       <c r="U108" s="45"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:21">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -3940,7 +4002,7 @@
       <c r="T109" s="44"/>
       <c r="U109" s="45"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:21">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -3963,7 +4025,7 @@
       <c r="T110" s="44"/>
       <c r="U110" s="45"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:21">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -3986,7 +4048,7 @@
       <c r="T111" s="44"/>
       <c r="U111" s="45"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:21">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4009,7 +4071,7 @@
       <c r="T112" s="44"/>
       <c r="U112" s="45"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:21">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4032,7 +4094,7 @@
       <c r="T113" s="44"/>
       <c r="U113" s="45"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:21">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4055,7 +4117,7 @@
       <c r="T114" s="44"/>
       <c r="U114" s="45"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:21">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4078,7 +4140,7 @@
       <c r="T115" s="44"/>
       <c r="U115" s="45"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:21">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4101,7 +4163,7 @@
       <c r="T116" s="44"/>
       <c r="U116" s="45"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:21">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4124,7 +4186,7 @@
       <c r="T117" s="44"/>
       <c r="U117" s="45"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:21">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4147,7 +4209,7 @@
       <c r="T118" s="44"/>
       <c r="U118" s="45"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:21">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4170,7 +4232,7 @@
       <c r="T119" s="44"/>
       <c r="U119" s="45"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:21">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4193,7 +4255,7 @@
       <c r="T120" s="44"/>
       <c r="U120" s="45"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:21">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4216,7 +4278,7 @@
       <c r="T121" s="44"/>
       <c r="U121" s="45"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:21">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4239,7 +4301,7 @@
       <c r="T122" s="44"/>
       <c r="U122" s="45"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:21">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4262,7 +4324,7 @@
       <c r="T123" s="44"/>
       <c r="U123" s="45"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:21">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4285,7 +4347,7 @@
       <c r="T124" s="44"/>
       <c r="U124" s="45"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:21">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4308,7 +4370,7 @@
       <c r="T125" s="44"/>
       <c r="U125" s="45"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:21">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4331,7 +4393,7 @@
       <c r="T126" s="44"/>
       <c r="U126" s="45"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:21">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4354,7 +4416,7 @@
       <c r="T127" s="44"/>
       <c r="U127" s="45"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:21">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4377,7 +4439,7 @@
       <c r="T128" s="44"/>
       <c r="U128" s="45"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:21">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -4400,7 +4462,7 @@
       <c r="T129" s="44"/>
       <c r="U129" s="45"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:21">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -4423,7 +4485,7 @@
       <c r="T130" s="44"/>
       <c r="U130" s="45"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:21">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -4446,7 +4508,7 @@
       <c r="T131" s="44"/>
       <c r="U131" s="45"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:21">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -4469,7 +4531,7 @@
       <c r="T132" s="44"/>
       <c r="U132" s="45"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:21">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -4492,7 +4554,7 @@
       <c r="T133" s="44"/>
       <c r="U133" s="45"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:21">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -4515,7 +4577,7 @@
       <c r="T134" s="44"/>
       <c r="U134" s="45"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:21">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -4535,7 +4597,7 @@
       <c r="Q135" s="45"/>
       <c r="U135" s="45"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:21">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -4555,7 +4617,7 @@
       <c r="Q136" s="45"/>
       <c r="U136" s="45"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:21">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -4575,7 +4637,7 @@
       <c r="Q137" s="45"/>
       <c r="U137" s="45"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:21">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -4595,7 +4657,7 @@
       <c r="Q138" s="45"/>
       <c r="U138" s="45"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:21">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -4615,7 +4677,7 @@
       <c r="Q139" s="45"/>
       <c r="U139" s="45"/>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:21">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -4635,7 +4697,7 @@
       <c r="Q140" s="45"/>
       <c r="U140" s="45"/>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:21">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -4655,7 +4717,7 @@
       <c r="Q141" s="45"/>
       <c r="U141" s="45"/>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:21">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -4675,7 +4737,7 @@
       <c r="Q142" s="45"/>
       <c r="U142" s="45"/>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:21">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -4695,7 +4757,7 @@
       <c r="Q143" s="45"/>
       <c r="U143" s="45"/>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:21">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -4715,7 +4777,7 @@
       <c r="Q144" s="45"/>
       <c r="U144" s="45"/>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:21">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -4735,7 +4797,7 @@
       <c r="Q145" s="45"/>
       <c r="U145" s="45"/>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:21">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -4755,7 +4817,7 @@
       <c r="Q146" s="45"/>
       <c r="U146" s="45"/>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:21">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -4775,7 +4837,7 @@
       <c r="Q147" s="45"/>
       <c r="U147" s="45"/>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:21">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -4795,7 +4857,7 @@
       <c r="Q148" s="45"/>
       <c r="U148" s="45"/>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:21">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -4815,7 +4877,7 @@
       <c r="Q149" s="45"/>
       <c r="U149" s="45"/>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:21">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -4835,7 +4897,7 @@
       <c r="Q150" s="45"/>
       <c r="U150" s="45"/>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:21">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -4855,7 +4917,7 @@
       <c r="Q151" s="45"/>
       <c r="U151" s="45"/>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:21">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -4875,7 +4937,7 @@
       <c r="Q152" s="45"/>
       <c r="U152" s="45"/>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:21">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -4895,7 +4957,7 @@
       <c r="Q153" s="45"/>
       <c r="U153" s="45"/>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:21">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -4915,7 +4977,7 @@
       <c r="Q154" s="45"/>
       <c r="U154" s="45"/>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:21">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -4935,7 +4997,7 @@
       <c r="Q155" s="45"/>
       <c r="U155" s="45"/>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:21">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -4955,7 +5017,7 @@
       <c r="Q156" s="45"/>
       <c r="U156" s="45"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:21">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -4975,7 +5037,7 @@
       <c r="Q157" s="45"/>
       <c r="U157" s="45"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:21">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -4995,7 +5057,7 @@
       <c r="Q158" s="45"/>
       <c r="U158" s="45"/>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:21">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5015,7 +5077,7 @@
       <c r="Q159" s="45"/>
       <c r="U159" s="45"/>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:21">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5035,7 +5097,7 @@
       <c r="Q160" s="45"/>
       <c r="U160" s="45"/>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:21">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5055,7 +5117,7 @@
       <c r="Q161" s="45"/>
       <c r="U161" s="45"/>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:21">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5075,7 +5137,7 @@
       <c r="Q162" s="45"/>
       <c r="U162" s="45"/>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:21">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5095,7 +5157,7 @@
       <c r="Q163" s="45"/>
       <c r="U163" s="45"/>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:21">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5115,7 +5177,7 @@
       <c r="Q164" s="45"/>
       <c r="U164" s="45"/>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:21">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5135,7 +5197,7 @@
       <c r="Q165" s="45"/>
       <c r="U165" s="45"/>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:21">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5155,7 +5217,7 @@
       <c r="Q166" s="45"/>
       <c r="U166" s="45"/>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:21">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5175,7 +5237,7 @@
       <c r="Q167" s="45"/>
       <c r="U167" s="45"/>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:21">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -5195,7 +5257,7 @@
       <c r="Q168" s="45"/>
       <c r="U168" s="45"/>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:21">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -5246,14 +5308,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
@@ -5273,7 +5335,7 @@
     <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:18" ht="36" customHeight="1">
       <c r="A1" s="62" t="s">
         <v>54</v>
       </c>
@@ -5329,7 +5391,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:18" ht="30" customHeight="1">
       <c r="A2" s="66"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -5349,7 +5411,7 @@
       <c r="Q2" s="75"/>
       <c r="R2" s="75"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:18" ht="30" customHeight="1">
       <c r="A3" s="66"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -5369,7 +5431,7 @@
       <c r="Q3" s="75"/>
       <c r="R3" s="75"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:18" ht="30" customHeight="1">
       <c r="A4" s="66"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -5396,14 +5458,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
@@ -5415,7 +5477,7 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" ht="20.25">
       <c r="A1" s="83" t="s">
         <v>53</v>
       </c>
@@ -5430,7 +5492,7 @@
       <c r="J1" s="84"/>
       <c r="K1" s="84"/>
     </row>
-    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="17.25">
       <c r="A2" s="18" t="s">
         <v>35</v>
       </c>
@@ -5465,7 +5527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="17.25">
       <c r="A3" s="85"/>
       <c r="B3" s="85"/>
       <c r="C3" s="20"/>
@@ -5478,7 +5540,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="17.25">
       <c r="A4" s="86"/>
       <c r="B4" s="87"/>
       <c r="C4" s="20"/>
@@ -5491,7 +5553,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="17.25">
       <c r="A5" s="85"/>
       <c r="B5" s="85"/>
       <c r="C5" s="20"/>
@@ -5504,7 +5566,7 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="17.25">
       <c r="A6" s="87"/>
       <c r="B6" s="87"/>
       <c r="C6" s="20"/>
@@ -5517,7 +5579,7 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="17.25">
       <c r="A7" s="87"/>
       <c r="B7" s="87"/>
       <c r="C7" s="20"/>
@@ -5530,7 +5592,7 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="17.25">
       <c r="A8" s="87"/>
       <c r="B8" s="87"/>
       <c r="C8" s="20"/>
@@ -5543,7 +5605,7 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="17.25">
       <c r="A9" s="87"/>
       <c r="B9" s="87"/>
       <c r="C9" s="20"/>
@@ -5556,7 +5618,7 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="17.25">
       <c r="A10" s="86"/>
       <c r="B10" s="86"/>
       <c r="C10" s="20"/>
@@ -5569,7 +5631,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="16.5">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -5596,14 +5658,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -5615,10 +5677,10 @@
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="47.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="88" t="s">
         <v>22</v>
       </c>
@@ -5635,7 +5697,7 @@
       <c r="L1" s="88"/>
       <c r="M1" s="89"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="90"/>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -5650,7 +5712,7 @@
       <c r="L2" s="90"/>
       <c r="M2" s="91"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -5691,22 +5753,46 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
+    <row r="4" spans="1:13" ht="181.5">
+      <c r="A4" s="92">
+        <v>1</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5721,7 +5807,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -5736,7 +5822,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -5751,7 +5837,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -5766,7 +5852,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5781,7 +5867,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5796,7 +5882,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -5811,7 +5897,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5826,7 +5912,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5841,7 +5927,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5856,7 +5942,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -5871,7 +5957,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -5910,29 +5996,29 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
     <col min="5" max="5" width="32.75" customWidth="1"/>
     <col min="6" max="6" width="4.75" customWidth="1"/>
-    <col min="7" max="7" width="57.25" customWidth="1"/>
+    <col min="7" max="7" width="63.25" customWidth="1"/>
     <col min="8" max="8" width="16.75" customWidth="1"/>
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="88" t="s">
         <v>22</v>
       </c>
@@ -5949,7 +6035,7 @@
       <c r="L1" s="88"/>
       <c r="M1" s="89"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="90"/>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -5964,7 +6050,7 @@
       <c r="L2" s="90"/>
       <c r="M2" s="91"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6005,22 +6091,46 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
+    <row r="4" spans="1:13" ht="181.5">
+      <c r="A4" s="92">
+        <v>1</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>72</v>
+      </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6035,7 +6145,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6050,7 +6160,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6065,7 +6175,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6080,7 +6190,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6095,7 +6205,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6110,7 +6220,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6125,7 +6235,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6140,7 +6250,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6155,7 +6265,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6170,7 +6280,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6185,7 +6295,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6212,11 +6322,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
+      <formula1>"开发环境、测试环境、生产环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
-      <formula1>"开发环境、测试环境、生产环境"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6224,14 +6334,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6243,10 +6353,10 @@
     <col min="9" max="9" width="8" customWidth="1"/>
     <col min="10" max="11" width="6.375" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
-    <col min="13" max="13" width="32.75" customWidth="1"/>
+    <col min="13" max="13" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="88" t="s">
         <v>22</v>
       </c>
@@ -6263,7 +6373,7 @@
       <c r="L1" s="88"/>
       <c r="M1" s="89"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="90"/>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -6278,7 +6388,7 @@
       <c r="L2" s="90"/>
       <c r="M2" s="91"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6319,22 +6429,48 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="198">
+      <c r="A4" s="92">
+        <v>1</v>
+      </c>
+      <c r="B4" s="92" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="92" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="93" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="92" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6349,7 +6485,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6364,7 +6500,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6379,7 +6515,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6394,7 +6530,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6409,7 +6545,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6424,7 +6560,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6439,7 +6575,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6454,7 +6590,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6469,7 +6605,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6484,7 +6620,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6499,7 +6635,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6538,14 +6674,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -6562,7 +6698,7 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13">
       <c r="A1" s="88" t="s">
         <v>22</v>
       </c>
@@ -6579,7 +6715,7 @@
       <c r="L1" s="88"/>
       <c r="M1" s="89"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2" s="90"/>
       <c r="B2" s="90"/>
       <c r="C2" s="90"/>
@@ -6594,7 +6730,7 @@
       <c r="L2" s="90"/>
       <c r="M2" s="91"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" ht="16.5">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6635,7 +6771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" ht="16.5">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6650,7 +6786,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" ht="16.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6665,7 +6801,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" ht="16.5">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -6680,7 +6816,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" ht="16.5">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6695,7 +6831,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" ht="16.5">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6710,7 +6846,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" ht="16.5">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6725,7 +6861,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" ht="16.5">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6740,7 +6876,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" ht="16.5">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6755,7 +6891,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" ht="16.5">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6770,7 +6906,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" ht="16.5">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6785,7 +6921,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" ht="16.5">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6800,7 +6936,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:13" ht="16.5">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6815,7 +6951,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:13" ht="16.5">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6854,14 +6990,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -6872,7 +7008,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -6898,7 +7034,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="1" customFormat="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6908,7 +7044,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -6918,7 +7054,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -6928,7 +7064,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -6938,7 +7074,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6948,7 +7084,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -6958,7 +7094,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6968,7 +7104,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -6978,7 +7114,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6988,7 +7124,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -6998,7 +7134,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7008,7 +7144,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7018,7 +7154,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7028,7 +7164,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7038,7 +7174,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7048,7 +7184,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7058,7 +7194,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7068,7 +7204,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>

--- a/VersionRecords/Version 5.1.9 20161222/版本Bug和特性计划及评审表v5.1.9_磐石组.xlsx
+++ b/VersionRecords/Version 5.1.9 20161222/版本Bug和特性计划及评审表v5.1.9_磐石组.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mogoDoc\Mogo_Doc\VersionRecords\Version 5.1.9 20161222\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="195" windowWidth="28695" windowHeight="13050" tabRatio="751" activeTab="5"/>
+    <workbookView xWindow="3075" yWindow="195" windowWidth="28695" windowHeight="13050" tabRatio="751"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.1.9 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="92">
   <si>
     <t>No</t>
   </si>
@@ -277,43 +282,87 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>filter.sysconfig.risk_txt_record=E:/00000
-filter.sysconfig.risk_qh_url = https://test-qhzx.pingan.com.cn:5443/do/dmz
-filter.sysconfig.risk_qh_username = V_PA025_QHCS_DCS
-filter.sysconfig.risk_qh_password = weblogic1
-filter.sysconfig.risk_qh_keyStr = SK803@!QLF-D25WEDA5E52DA
-filter.sysconfig.risk_qh_stg_cer = D:/Key/credoo_stg.cer
-filter.sysconfig.risk_qh_stg_jks = D:/Key/credoo_stg.jks
-filter.sysconfig.risk_qh_orgcode = 10000000
-filter.sysconfig.risk_qh_chnlid = qhcs-dcs
-filter.sysconfig.risk_qh_authcode = CRT001A2
-filter.sysconfig.risk_qh_privateKeyCode = qhzx_stg</t>
+    <t>磐石组</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>filter.sysconfig.risk_txt_record=前海接口调用日志保存路径
-filter.sysconfig.risk_qh_url = 前海征信接口地址
-filter.sysconfig.risk_qh_username =前海征信接口用户名
-filter.sysconfig.risk_qh_password = 前海征信接口密码
-filter.sysconfig.risk_qh_keyStr = 前海加密字符串
-filter.sysconfig.risk_qh_stg_cer =前海公钥位置及名称
-filter.sysconfig.risk_qh_stg_jks = 前海私钥位置及名称
-filter.sysconfig.risk_qh_orgcode = 机构代码
-filter.sysconfig.risk_qh_chnlid = 前海接入系统ID
-filter.sysconfig.risk_qh_authcode = 前海授权码
-filter.sysconfig.risk_qh_privateKeyCode = 前海私钥加密字符串</t>
+    <t>sysconfig.risk_txt_record=E:/00000
+sysconfig.risk_qh_url = https://test-qhzx.pingan.com.cn:5443/do/dmz
+sysconfig.risk_qh_username = V_PA025_QHCS_DCS
+sysconfig.risk_qh_password = weblogic1
+sysconfig.risk_qh_keyStr = SK803@!QLF-D25WEDA5E52DA
+sysconfig.risk_qh_stg_cer = D:/Key/credoo_stg.cer
+sysconfig.risk_qh_stg_jks = D:/Key/credoo_stg.jks
+sysconfig.risk_qh_orgcode = 10000000
+sysconfig.risk_qh_chnlid = qhcs-dcs
+sysconfig.risk_qh_authcode = CRT001A2
+sysconfig.risk_qh_privateKeyCode = qhzx_stg</t>
+  </si>
+  <si>
+    <t>sysconfig.risk_txt_record=前海接口调用日志保存路径
+sysconfig.risk_qh_url = 前海征信接口地址
+sysconfig.risk_qh_username =前海征信接口用户名
+sysconfig.risk_qh_password = 前海征信接口密码
+sysconfig.risk_qh_keyStr = 前海加密字符串
+sysconfig.risk_qh_stg_cer =前海公钥位置及名称
+sysconfig.risk_qh_stg_jks = 前海私钥位置及名称
+sysconfig.risk_qh_orgcode = 机构代码
+sysconfig.risk_qh_chnlid = 前海接入系统ID
+sysconfig.risk_qh_authcode = 前海授权码
+sysconfig.risk_qh_privateKeyCode = 前海私钥加密字符串</t>
+  </si>
+  <si>
+    <t>重要</t>
+  </si>
+  <si>
+    <t>紧急</t>
+  </si>
+  <si>
+    <t>【BS】金融风控规则需求三期</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>磐石组</t>
+    <t>BS</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>New Features</t>
+  </si>
+  <si>
+    <t>定时器</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+  </si>
+  <si>
+    <t>孙苏文、张浩</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
+    <t>【BS】报表&amp;查询优化五期</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>【BS】查询列表、报表导出功能优化</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="28">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -988,6 +1037,12 @@
     <xf numFmtId="0" fontId="26" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1014,12 +1069,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1034,7 +1083,7 @@
     <cellStyle name="常规 6" xfId="1"/>
     <cellStyle name="常规 9" xfId="3"/>
     <cellStyle name="甘特图" xfId="2"/>
-    <cellStyle name="强调文字颜色 4" xfId="8" builtinId="41"/>
+    <cellStyle name="着色 4" xfId="8" builtinId="41"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1403,18 +1452,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="6.875" style="32" customWidth="1"/>
     <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
-    <col min="4" max="4" width="20.375" style="33" customWidth="1"/>
+    <col min="4" max="4" width="28.75" style="33" customWidth="1"/>
     <col min="5" max="5" width="15" style="32" customWidth="1"/>
     <col min="6" max="6" width="18.125" style="32" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="32" customWidth="1"/>
@@ -1436,7 +1485,7 @@
     <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="30" customFormat="1" ht="27">
+    <row r="1" spans="1:22" s="30" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1501,79 +1550,157 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+    <row r="2" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="77">
+        <v>1</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="78" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="F2" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="G2" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" s="80">
+        <v>42725</v>
+      </c>
+      <c r="I2" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="J2" s="80">
+        <v>42725</v>
+      </c>
       <c r="K2" s="79"/>
-      <c r="L2" s="81"/>
+      <c r="L2" s="81" t="s">
+        <v>86</v>
+      </c>
       <c r="M2" s="79"/>
       <c r="N2" s="79"/>
-      <c r="O2" s="81"/>
+      <c r="O2" s="81" t="s">
+        <v>87</v>
+      </c>
       <c r="P2" s="80"/>
-      <c r="Q2" s="81"/>
+      <c r="Q2" s="81" t="s">
+        <v>88</v>
+      </c>
       <c r="R2" s="44"/>
       <c r="S2" s="44"/>
       <c r="T2" s="52"/>
       <c r="U2" s="82"/>
       <c r="V2" s="54"/>
     </row>
-    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="38"/>
-      <c r="N3" s="38"/>
-      <c r="O3" s="47"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="47"/>
+    <row r="3" spans="1:22" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="77">
+        <v>2</v>
+      </c>
+      <c r="B3" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C3" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" s="80">
+        <v>42725</v>
+      </c>
+      <c r="I3" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="80">
+        <v>42725</v>
+      </c>
+      <c r="K3" s="79"/>
+      <c r="L3" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="81" t="s">
+        <v>88</v>
+      </c>
       <c r="R3" s="44"/>
       <c r="S3" s="44"/>
       <c r="T3" s="52"/>
       <c r="U3" s="53"/>
       <c r="V3" s="54"/>
     </row>
-    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5">
-      <c r="A4" s="36"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="47"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="47"/>
+    <row r="4" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="77">
+        <v>3</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="80">
+        <v>42725</v>
+      </c>
+      <c r="I4" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="80">
+        <v>42725</v>
+      </c>
+      <c r="K4" s="79"/>
+      <c r="L4" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="79"/>
+      <c r="N4" s="79"/>
+      <c r="O4" s="81" t="s">
+        <v>87</v>
+      </c>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="81" t="s">
+        <v>88</v>
+      </c>
       <c r="R4" s="44"/>
       <c r="S4" s="44"/>
       <c r="T4" s="52"/>
       <c r="U4" s="55"/>
       <c r="V4" s="54"/>
     </row>
-    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="5" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="36"/>
       <c r="B5" s="36"/>
       <c r="C5" s="36"/>
@@ -1597,7 +1724,7 @@
       <c r="U5" s="55"/>
       <c r="V5" s="54"/>
     </row>
-    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="6" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="36"/>
       <c r="B6" s="36"/>
       <c r="C6" s="36"/>
@@ -1621,7 +1748,7 @@
       <c r="U6" s="55"/>
       <c r="V6" s="54"/>
     </row>
-    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="7" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="36"/>
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
@@ -1645,7 +1772,7 @@
       <c r="U7" s="55"/>
       <c r="V7" s="54"/>
     </row>
-    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="8" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="36"/>
       <c r="B8" s="36"/>
       <c r="C8" s="36"/>
@@ -1669,7 +1796,7 @@
       <c r="U8" s="55"/>
       <c r="V8" s="54"/>
     </row>
-    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="9" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="36"/>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -1693,7 +1820,7 @@
       <c r="U9" s="55"/>
       <c r="V9" s="54"/>
     </row>
-    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="10" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="36"/>
       <c r="B10" s="36"/>
       <c r="C10" s="36"/>
@@ -1717,7 +1844,7 @@
       <c r="U10" s="55"/>
       <c r="V10" s="54"/>
     </row>
-    <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="11" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="36"/>
       <c r="B11" s="36"/>
       <c r="C11" s="36"/>
@@ -1741,7 +1868,7 @@
       <c r="U11" s="55"/>
       <c r="V11" s="54"/>
     </row>
-    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="12" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="36"/>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -1765,7 +1892,7 @@
       <c r="U12" s="55"/>
       <c r="V12" s="54"/>
     </row>
-    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="13" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -1789,7 +1916,7 @@
       <c r="U13" s="55"/>
       <c r="V13" s="54"/>
     </row>
-    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="14" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="36"/>
       <c r="B14" s="36"/>
       <c r="C14" s="36"/>
@@ -1813,7 +1940,7 @@
       <c r="U14" s="55"/>
       <c r="V14" s="54"/>
     </row>
-    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="15" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="36"/>
@@ -1837,7 +1964,7 @@
       <c r="U15" s="55"/>
       <c r="V15" s="54"/>
     </row>
-    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5">
+    <row r="16" spans="1:22" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="36"/>
       <c r="B16" s="36"/>
       <c r="C16" s="36"/>
@@ -1861,7 +1988,7 @@
       <c r="U16" s="57"/>
       <c r="V16" s="54"/>
     </row>
-    <row r="17" spans="1:21" ht="16.5">
+    <row r="17" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="36"/>
       <c r="B17" s="36"/>
       <c r="C17" s="36"/>
@@ -1884,7 +2011,7 @@
       <c r="T17" s="44"/>
       <c r="U17" s="45"/>
     </row>
-    <row r="18" spans="1:21" ht="16.5">
+    <row r="18" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -1907,7 +2034,7 @@
       <c r="T18" s="44"/>
       <c r="U18" s="45"/>
     </row>
-    <row r="19" spans="1:21" ht="16.5">
+    <row r="19" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="36"/>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -1930,7 +2057,7 @@
       <c r="T19" s="44"/>
       <c r="U19" s="45"/>
     </row>
-    <row r="20" spans="1:21" ht="16.5">
+    <row r="20" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="36"/>
       <c r="B20" s="36"/>
       <c r="C20" s="36"/>
@@ -1953,7 +2080,7 @@
       <c r="T20" s="44"/>
       <c r="U20" s="55"/>
     </row>
-    <row r="21" spans="1:21" ht="16.5">
+    <row r="21" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="36"/>
       <c r="B21" s="36"/>
       <c r="C21" s="36"/>
@@ -1976,7 +2103,7 @@
       <c r="T21" s="44"/>
       <c r="U21" s="55"/>
     </row>
-    <row r="22" spans="1:21" ht="16.5">
+    <row r="22" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="36"/>
       <c r="B22" s="36"/>
       <c r="C22" s="36"/>
@@ -1999,7 +2126,7 @@
       <c r="T22" s="44"/>
       <c r="U22" s="55"/>
     </row>
-    <row r="23" spans="1:21" ht="16.5">
+    <row r="23" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="36"/>
       <c r="B23" s="36"/>
       <c r="C23" s="36"/>
@@ -2022,7 +2149,7 @@
       <c r="T23" s="58"/>
       <c r="U23" s="59"/>
     </row>
-    <row r="24" spans="1:21" ht="16.5">
+    <row r="24" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="36"/>
       <c r="B24" s="36"/>
       <c r="C24" s="36"/>
@@ -2045,7 +2172,7 @@
       <c r="T24" s="60"/>
       <c r="U24" s="59"/>
     </row>
-    <row r="25" spans="1:21" ht="16.5">
+    <row r="25" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -2068,7 +2195,7 @@
       <c r="T25" s="61"/>
       <c r="U25" s="59"/>
     </row>
-    <row r="26" spans="1:21" ht="16.5">
+    <row r="26" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="36"/>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -2091,7 +2218,7 @@
       <c r="T26" s="60"/>
       <c r="U26" s="59"/>
     </row>
-    <row r="27" spans="1:21" ht="16.5">
+    <row r="27" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="36"/>
       <c r="B27" s="36"/>
       <c r="C27" s="36"/>
@@ -2114,7 +2241,7 @@
       <c r="T27" s="60"/>
       <c r="U27" s="59"/>
     </row>
-    <row r="28" spans="1:21" ht="16.5">
+    <row r="28" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="36"/>
       <c r="B28" s="36"/>
       <c r="C28" s="36"/>
@@ -2137,7 +2264,7 @@
       <c r="T28" s="56"/>
       <c r="U28" s="47"/>
     </row>
-    <row r="29" spans="1:21" ht="16.5">
+    <row r="29" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="36"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
@@ -2160,7 +2287,7 @@
       <c r="T29" s="44"/>
       <c r="U29" s="55"/>
     </row>
-    <row r="30" spans="1:21" ht="16.5">
+    <row r="30" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="36"/>
       <c r="B30" s="36"/>
       <c r="C30" s="36"/>
@@ -2183,7 +2310,7 @@
       <c r="T30" s="44"/>
       <c r="U30" s="55"/>
     </row>
-    <row r="31" spans="1:21" ht="16.5">
+    <row r="31" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="36"/>
       <c r="B31" s="36"/>
       <c r="C31" s="36"/>
@@ -2206,7 +2333,7 @@
       <c r="T31" s="44"/>
       <c r="U31" s="55"/>
     </row>
-    <row r="32" spans="1:21" ht="16.5">
+    <row r="32" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="36"/>
       <c r="B32" s="36"/>
       <c r="C32" s="36"/>
@@ -2229,7 +2356,7 @@
       <c r="T32" s="60"/>
       <c r="U32" s="59"/>
     </row>
-    <row r="33" spans="1:21" ht="49.5">
+    <row r="33" spans="1:21" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A33" s="36"/>
       <c r="B33" s="36"/>
       <c r="C33" s="36"/>
@@ -2254,7 +2381,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="16.5">
+    <row r="34" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="36"/>
       <c r="B34" s="36"/>
       <c r="C34" s="36"/>
@@ -2277,7 +2404,7 @@
       <c r="T34" s="44"/>
       <c r="U34" s="55"/>
     </row>
-    <row r="35" spans="1:21" ht="16.5">
+    <row r="35" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="36"/>
       <c r="B35" s="36"/>
       <c r="C35" s="36"/>
@@ -2300,7 +2427,7 @@
       <c r="T35" s="44"/>
       <c r="U35" s="55"/>
     </row>
-    <row r="36" spans="1:21" ht="16.5">
+    <row r="36" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="36"/>
       <c r="B36" s="36"/>
       <c r="C36" s="36"/>
@@ -2323,7 +2450,7 @@
       <c r="T36" s="44"/>
       <c r="U36" s="55"/>
     </row>
-    <row r="37" spans="1:21" ht="16.5">
+    <row r="37" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="36"/>
       <c r="B37" s="36"/>
       <c r="C37" s="36"/>
@@ -2346,7 +2473,7 @@
       <c r="T37" s="44"/>
       <c r="U37" s="55"/>
     </row>
-    <row r="38" spans="1:21" ht="16.5">
+    <row r="38" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="36"/>
       <c r="B38" s="36"/>
       <c r="C38" s="36"/>
@@ -2369,7 +2496,7 @@
       <c r="T38" s="44"/>
       <c r="U38" s="55"/>
     </row>
-    <row r="39" spans="1:21" ht="16.5">
+    <row r="39" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="36"/>
       <c r="B39" s="36"/>
       <c r="C39" s="36"/>
@@ -2392,7 +2519,7 @@
       <c r="T39" s="44"/>
       <c r="U39" s="55"/>
     </row>
-    <row r="40" spans="1:21" ht="16.5">
+    <row r="40" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="36"/>
       <c r="B40" s="36"/>
       <c r="C40" s="36"/>
@@ -2415,7 +2542,7 @@
       <c r="T40" s="44"/>
       <c r="U40" s="55"/>
     </row>
-    <row r="41" spans="1:21" ht="16.5">
+    <row r="41" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="36"/>
       <c r="B41" s="36"/>
       <c r="C41" s="36"/>
@@ -2438,7 +2565,7 @@
       <c r="T41" s="44"/>
       <c r="U41" s="55"/>
     </row>
-    <row r="42" spans="1:21" ht="16.5">
+    <row r="42" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="36"/>
       <c r="B42" s="36"/>
       <c r="C42" s="36"/>
@@ -2461,7 +2588,7 @@
       <c r="T42" s="44"/>
       <c r="U42" s="55"/>
     </row>
-    <row r="43" spans="1:21" ht="16.5">
+    <row r="43" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="36"/>
       <c r="B43" s="36"/>
       <c r="C43" s="36"/>
@@ -2484,7 +2611,7 @@
       <c r="T43" s="44"/>
       <c r="U43" s="55"/>
     </row>
-    <row r="44" spans="1:21" ht="16.5">
+    <row r="44" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="36"/>
       <c r="B44" s="36"/>
       <c r="C44" s="36"/>
@@ -2507,7 +2634,7 @@
       <c r="T44" s="56"/>
       <c r="U44" s="55"/>
     </row>
-    <row r="45" spans="1:21" ht="16.5">
+    <row r="45" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="36"/>
       <c r="B45" s="36"/>
       <c r="C45" s="36"/>
@@ -2530,7 +2657,7 @@
       <c r="T45" s="56"/>
       <c r="U45" s="55"/>
     </row>
-    <row r="46" spans="1:21" ht="16.5">
+    <row r="46" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="36"/>
       <c r="B46" s="36"/>
       <c r="C46" s="36"/>
@@ -2553,7 +2680,7 @@
       <c r="T46" s="44"/>
       <c r="U46" s="45"/>
     </row>
-    <row r="47" spans="1:21" ht="16.5">
+    <row r="47" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="36"/>
       <c r="B47" s="36"/>
       <c r="C47" s="36"/>
@@ -2576,7 +2703,7 @@
       <c r="T47" s="44"/>
       <c r="U47" s="45"/>
     </row>
-    <row r="48" spans="1:21" ht="16.5">
+    <row r="48" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="36"/>
       <c r="B48" s="36"/>
       <c r="C48" s="36"/>
@@ -2599,7 +2726,7 @@
       <c r="T48" s="44"/>
       <c r="U48" s="45"/>
     </row>
-    <row r="49" spans="1:21" ht="16.5">
+    <row r="49" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="36"/>
       <c r="B49" s="36"/>
       <c r="C49" s="36"/>
@@ -2622,7 +2749,7 @@
       <c r="T49" s="44"/>
       <c r="U49" s="45"/>
     </row>
-    <row r="50" spans="1:21" ht="16.5">
+    <row r="50" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="36"/>
       <c r="B50" s="36"/>
       <c r="C50" s="36"/>
@@ -2645,7 +2772,7 @@
       <c r="T50" s="44"/>
       <c r="U50" s="45"/>
     </row>
-    <row r="51" spans="1:21" ht="16.5">
+    <row r="51" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="36"/>
       <c r="B51" s="36"/>
       <c r="C51" s="36"/>
@@ -2668,7 +2795,7 @@
       <c r="T51" s="44"/>
       <c r="U51" s="45"/>
     </row>
-    <row r="52" spans="1:21" ht="16.5">
+    <row r="52" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="36"/>
       <c r="B52" s="36"/>
       <c r="C52" s="36"/>
@@ -2691,7 +2818,7 @@
       <c r="T52" s="44"/>
       <c r="U52" s="45"/>
     </row>
-    <row r="53" spans="1:21" ht="16.5">
+    <row r="53" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="44"/>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -2714,7 +2841,7 @@
       <c r="T53" s="44"/>
       <c r="U53" s="45"/>
     </row>
-    <row r="54" spans="1:21" ht="16.5">
+    <row r="54" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="44"/>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
@@ -2737,7 +2864,7 @@
       <c r="T54" s="44"/>
       <c r="U54" s="45"/>
     </row>
-    <row r="55" spans="1:21" ht="16.5">
+    <row r="55" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="44"/>
       <c r="B55" s="44"/>
       <c r="C55" s="44"/>
@@ -2760,7 +2887,7 @@
       <c r="T55" s="44"/>
       <c r="U55" s="45"/>
     </row>
-    <row r="56" spans="1:21" ht="16.5">
+    <row r="56" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="44"/>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -2783,7 +2910,7 @@
       <c r="T56" s="44"/>
       <c r="U56" s="45"/>
     </row>
-    <row r="57" spans="1:21" ht="16.5">
+    <row r="57" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="44"/>
       <c r="B57" s="44"/>
       <c r="C57" s="44"/>
@@ -2806,7 +2933,7 @@
       <c r="T57" s="44"/>
       <c r="U57" s="45"/>
     </row>
-    <row r="58" spans="1:21" ht="16.5">
+    <row r="58" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="44"/>
       <c r="B58" s="44"/>
       <c r="C58" s="44"/>
@@ -2829,7 +2956,7 @@
       <c r="T58" s="44"/>
       <c r="U58" s="45"/>
     </row>
-    <row r="59" spans="1:21" ht="16.5">
+    <row r="59" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="44"/>
       <c r="B59" s="44"/>
       <c r="C59" s="44"/>
@@ -2852,7 +2979,7 @@
       <c r="T59" s="44"/>
       <c r="U59" s="45"/>
     </row>
-    <row r="60" spans="1:21" ht="16.5">
+    <row r="60" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="44"/>
       <c r="B60" s="44"/>
       <c r="C60" s="44"/>
@@ -2875,7 +3002,7 @@
       <c r="T60" s="44"/>
       <c r="U60" s="45"/>
     </row>
-    <row r="61" spans="1:21" ht="16.5">
+    <row r="61" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="44"/>
       <c r="B61" s="44"/>
       <c r="C61" s="44"/>
@@ -2898,7 +3025,7 @@
       <c r="T61" s="44"/>
       <c r="U61" s="45"/>
     </row>
-    <row r="62" spans="1:21" ht="16.5">
+    <row r="62" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="44"/>
       <c r="B62" s="44"/>
       <c r="C62" s="44"/>
@@ -2921,7 +3048,7 @@
       <c r="T62" s="44"/>
       <c r="U62" s="45"/>
     </row>
-    <row r="63" spans="1:21" ht="16.5">
+    <row r="63" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="44"/>
       <c r="B63" s="44"/>
       <c r="C63" s="44"/>
@@ -2944,7 +3071,7 @@
       <c r="T63" s="44"/>
       <c r="U63" s="45"/>
     </row>
-    <row r="64" spans="1:21" ht="16.5">
+    <row r="64" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="44"/>
       <c r="B64" s="44"/>
       <c r="C64" s="44"/>
@@ -2967,7 +3094,7 @@
       <c r="T64" s="44"/>
       <c r="U64" s="45"/>
     </row>
-    <row r="65" spans="1:21" ht="16.5">
+    <row r="65" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="44"/>
       <c r="B65" s="44"/>
       <c r="C65" s="44"/>
@@ -2990,7 +3117,7 @@
       <c r="T65" s="44"/>
       <c r="U65" s="45"/>
     </row>
-    <row r="66" spans="1:21" ht="16.5">
+    <row r="66" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="44"/>
       <c r="B66" s="44"/>
       <c r="C66" s="44"/>
@@ -3013,7 +3140,7 @@
       <c r="T66" s="44"/>
       <c r="U66" s="45"/>
     </row>
-    <row r="67" spans="1:21" ht="16.5">
+    <row r="67" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="44"/>
       <c r="B67" s="44"/>
       <c r="C67" s="44"/>
@@ -3036,7 +3163,7 @@
       <c r="T67" s="44"/>
       <c r="U67" s="45"/>
     </row>
-    <row r="68" spans="1:21" ht="16.5">
+    <row r="68" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="44"/>
       <c r="B68" s="44"/>
       <c r="C68" s="44"/>
@@ -3059,7 +3186,7 @@
       <c r="T68" s="44"/>
       <c r="U68" s="45"/>
     </row>
-    <row r="69" spans="1:21" ht="16.5">
+    <row r="69" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="44"/>
       <c r="B69" s="44"/>
       <c r="C69" s="44"/>
@@ -3082,7 +3209,7 @@
       <c r="T69" s="44"/>
       <c r="U69" s="45"/>
     </row>
-    <row r="70" spans="1:21" ht="16.5">
+    <row r="70" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="44"/>
       <c r="B70" s="44"/>
       <c r="C70" s="44"/>
@@ -3105,7 +3232,7 @@
       <c r="T70" s="44"/>
       <c r="U70" s="45"/>
     </row>
-    <row r="71" spans="1:21" ht="16.5">
+    <row r="71" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="44"/>
       <c r="B71" s="44"/>
       <c r="C71" s="44"/>
@@ -3128,7 +3255,7 @@
       <c r="T71" s="44"/>
       <c r="U71" s="45"/>
     </row>
-    <row r="72" spans="1:21" ht="16.5">
+    <row r="72" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="44"/>
       <c r="B72" s="44"/>
       <c r="C72" s="44"/>
@@ -3151,7 +3278,7 @@
       <c r="T72" s="44"/>
       <c r="U72" s="45"/>
     </row>
-    <row r="73" spans="1:21" ht="16.5">
+    <row r="73" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="44"/>
       <c r="B73" s="44"/>
       <c r="C73" s="44"/>
@@ -3174,7 +3301,7 @@
       <c r="T73" s="44"/>
       <c r="U73" s="45"/>
     </row>
-    <row r="74" spans="1:21" ht="16.5">
+    <row r="74" spans="1:21" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="44"/>
       <c r="B74" s="44"/>
       <c r="C74" s="44"/>
@@ -3197,7 +3324,7 @@
       <c r="T74" s="44"/>
       <c r="U74" s="45"/>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A75" s="44"/>
       <c r="B75" s="44"/>
       <c r="C75" s="44"/>
@@ -3220,7 +3347,7 @@
       <c r="T75" s="44"/>
       <c r="U75" s="45"/>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A76" s="44"/>
       <c r="B76" s="44"/>
       <c r="C76" s="44"/>
@@ -3243,7 +3370,7 @@
       <c r="T76" s="44"/>
       <c r="U76" s="45"/>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A77" s="44"/>
       <c r="B77" s="44"/>
       <c r="C77" s="44"/>
@@ -3266,7 +3393,7 @@
       <c r="T77" s="44"/>
       <c r="U77" s="45"/>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A78" s="44"/>
       <c r="B78" s="44"/>
       <c r="C78" s="44"/>
@@ -3289,7 +3416,7 @@
       <c r="T78" s="44"/>
       <c r="U78" s="45"/>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A79" s="44"/>
       <c r="B79" s="44"/>
       <c r="C79" s="44"/>
@@ -3312,7 +3439,7 @@
       <c r="T79" s="44"/>
       <c r="U79" s="45"/>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A80" s="44"/>
       <c r="B80" s="44"/>
       <c r="C80" s="44"/>
@@ -3335,7 +3462,7 @@
       <c r="T80" s="44"/>
       <c r="U80" s="45"/>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A81" s="44"/>
       <c r="B81" s="44"/>
       <c r="C81" s="44"/>
@@ -3358,7 +3485,7 @@
       <c r="T81" s="44"/>
       <c r="U81" s="45"/>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A82" s="44"/>
       <c r="B82" s="44"/>
       <c r="C82" s="44"/>
@@ -3381,7 +3508,7 @@
       <c r="T82" s="44"/>
       <c r="U82" s="45"/>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A83" s="44"/>
       <c r="B83" s="44"/>
       <c r="C83" s="44"/>
@@ -3404,7 +3531,7 @@
       <c r="T83" s="44"/>
       <c r="U83" s="45"/>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A84" s="44"/>
       <c r="B84" s="44"/>
       <c r="C84" s="44"/>
@@ -3427,7 +3554,7 @@
       <c r="T84" s="44"/>
       <c r="U84" s="45"/>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A85" s="44"/>
       <c r="B85" s="44"/>
       <c r="C85" s="44"/>
@@ -3450,7 +3577,7 @@
       <c r="T85" s="44"/>
       <c r="U85" s="45"/>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A86" s="44"/>
       <c r="B86" s="44"/>
       <c r="C86" s="44"/>
@@ -3473,7 +3600,7 @@
       <c r="T86" s="44"/>
       <c r="U86" s="45"/>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A87" s="44"/>
       <c r="B87" s="44"/>
       <c r="C87" s="44"/>
@@ -3496,7 +3623,7 @@
       <c r="T87" s="44"/>
       <c r="U87" s="45"/>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A88" s="44"/>
       <c r="B88" s="44"/>
       <c r="C88" s="44"/>
@@ -3519,7 +3646,7 @@
       <c r="T88" s="44"/>
       <c r="U88" s="45"/>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A89" s="44"/>
       <c r="B89" s="44"/>
       <c r="C89" s="44"/>
@@ -3542,7 +3669,7 @@
       <c r="T89" s="44"/>
       <c r="U89" s="45"/>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A90" s="44"/>
       <c r="B90" s="44"/>
       <c r="C90" s="44"/>
@@ -3565,7 +3692,7 @@
       <c r="T90" s="44"/>
       <c r="U90" s="45"/>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A91" s="44"/>
       <c r="B91" s="44"/>
       <c r="C91" s="44"/>
@@ -3588,7 +3715,7 @@
       <c r="T91" s="44"/>
       <c r="U91" s="45"/>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A92" s="44"/>
       <c r="B92" s="44"/>
       <c r="C92" s="44"/>
@@ -3611,7 +3738,7 @@
       <c r="T92" s="44"/>
       <c r="U92" s="45"/>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A93" s="44"/>
       <c r="B93" s="44"/>
       <c r="C93" s="44"/>
@@ -3634,7 +3761,7 @@
       <c r="T93" s="44"/>
       <c r="U93" s="45"/>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A94" s="44"/>
       <c r="B94" s="44"/>
       <c r="C94" s="44"/>
@@ -3657,7 +3784,7 @@
       <c r="T94" s="44"/>
       <c r="U94" s="45"/>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A95" s="44"/>
       <c r="B95" s="44"/>
       <c r="C95" s="44"/>
@@ -3680,7 +3807,7 @@
       <c r="T95" s="44"/>
       <c r="U95" s="45"/>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A96" s="44"/>
       <c r="B96" s="44"/>
       <c r="C96" s="44"/>
@@ -3703,7 +3830,7 @@
       <c r="T96" s="44"/>
       <c r="U96" s="45"/>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A97" s="44"/>
       <c r="B97" s="44"/>
       <c r="C97" s="44"/>
@@ -3726,7 +3853,7 @@
       <c r="T97" s="44"/>
       <c r="U97" s="45"/>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A98" s="44"/>
       <c r="B98" s="44"/>
       <c r="C98" s="44"/>
@@ -3749,7 +3876,7 @@
       <c r="T98" s="44"/>
       <c r="U98" s="45"/>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A99" s="44"/>
       <c r="B99" s="44"/>
       <c r="C99" s="44"/>
@@ -3772,7 +3899,7 @@
       <c r="T99" s="44"/>
       <c r="U99" s="45"/>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A100" s="44"/>
       <c r="B100" s="44"/>
       <c r="C100" s="44"/>
@@ -3795,7 +3922,7 @@
       <c r="T100" s="44"/>
       <c r="U100" s="45"/>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A101" s="44"/>
       <c r="B101" s="44"/>
       <c r="C101" s="44"/>
@@ -3818,7 +3945,7 @@
       <c r="T101" s="44"/>
       <c r="U101" s="45"/>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A102" s="44"/>
       <c r="B102" s="44"/>
       <c r="C102" s="44"/>
@@ -3841,7 +3968,7 @@
       <c r="T102" s="44"/>
       <c r="U102" s="45"/>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A103" s="44"/>
       <c r="B103" s="44"/>
       <c r="C103" s="44"/>
@@ -3864,7 +3991,7 @@
       <c r="T103" s="44"/>
       <c r="U103" s="45"/>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A104" s="44"/>
       <c r="B104" s="44"/>
       <c r="C104" s="44"/>
@@ -3887,7 +4014,7 @@
       <c r="T104" s="44"/>
       <c r="U104" s="45"/>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A105" s="44"/>
       <c r="B105" s="44"/>
       <c r="C105" s="44"/>
@@ -3910,7 +4037,7 @@
       <c r="T105" s="44"/>
       <c r="U105" s="45"/>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A106" s="44"/>
       <c r="B106" s="44"/>
       <c r="C106" s="44"/>
@@ -3933,7 +4060,7 @@
       <c r="T106" s="44"/>
       <c r="U106" s="45"/>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A107" s="44"/>
       <c r="B107" s="44"/>
       <c r="C107" s="44"/>
@@ -3956,7 +4083,7 @@
       <c r="T107" s="44"/>
       <c r="U107" s="45"/>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A108" s="44"/>
       <c r="B108" s="44"/>
       <c r="C108" s="44"/>
@@ -3979,7 +4106,7 @@
       <c r="T108" s="44"/>
       <c r="U108" s="45"/>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A109" s="44"/>
       <c r="B109" s="44"/>
       <c r="C109" s="44"/>
@@ -4002,7 +4129,7 @@
       <c r="T109" s="44"/>
       <c r="U109" s="45"/>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A110" s="44"/>
       <c r="B110" s="44"/>
       <c r="C110" s="44"/>
@@ -4025,7 +4152,7 @@
       <c r="T110" s="44"/>
       <c r="U110" s="45"/>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A111" s="44"/>
       <c r="B111" s="44"/>
       <c r="C111" s="44"/>
@@ -4048,7 +4175,7 @@
       <c r="T111" s="44"/>
       <c r="U111" s="45"/>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A112" s="44"/>
       <c r="B112" s="44"/>
       <c r="C112" s="44"/>
@@ -4071,7 +4198,7 @@
       <c r="T112" s="44"/>
       <c r="U112" s="45"/>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A113" s="44"/>
       <c r="B113" s="44"/>
       <c r="C113" s="44"/>
@@ -4094,7 +4221,7 @@
       <c r="T113" s="44"/>
       <c r="U113" s="45"/>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A114" s="44"/>
       <c r="B114" s="44"/>
       <c r="C114" s="44"/>
@@ -4117,7 +4244,7 @@
       <c r="T114" s="44"/>
       <c r="U114" s="45"/>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A115" s="44"/>
       <c r="B115" s="44"/>
       <c r="C115" s="44"/>
@@ -4140,7 +4267,7 @@
       <c r="T115" s="44"/>
       <c r="U115" s="45"/>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A116" s="44"/>
       <c r="B116" s="44"/>
       <c r="C116" s="44"/>
@@ -4163,7 +4290,7 @@
       <c r="T116" s="44"/>
       <c r="U116" s="45"/>
     </row>
-    <row r="117" spans="1:21">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A117" s="44"/>
       <c r="B117" s="44"/>
       <c r="C117" s="44"/>
@@ -4186,7 +4313,7 @@
       <c r="T117" s="44"/>
       <c r="U117" s="45"/>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A118" s="44"/>
       <c r="B118" s="44"/>
       <c r="C118" s="44"/>
@@ -4209,7 +4336,7 @@
       <c r="T118" s="44"/>
       <c r="U118" s="45"/>
     </row>
-    <row r="119" spans="1:21">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A119" s="44"/>
       <c r="B119" s="44"/>
       <c r="C119" s="44"/>
@@ -4232,7 +4359,7 @@
       <c r="T119" s="44"/>
       <c r="U119" s="45"/>
     </row>
-    <row r="120" spans="1:21">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A120" s="44"/>
       <c r="B120" s="44"/>
       <c r="C120" s="44"/>
@@ -4255,7 +4382,7 @@
       <c r="T120" s="44"/>
       <c r="U120" s="45"/>
     </row>
-    <row r="121" spans="1:21">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A121" s="44"/>
       <c r="B121" s="44"/>
       <c r="C121" s="44"/>
@@ -4278,7 +4405,7 @@
       <c r="T121" s="44"/>
       <c r="U121" s="45"/>
     </row>
-    <row r="122" spans="1:21">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A122" s="44"/>
       <c r="B122" s="44"/>
       <c r="C122" s="44"/>
@@ -4301,7 +4428,7 @@
       <c r="T122" s="44"/>
       <c r="U122" s="45"/>
     </row>
-    <row r="123" spans="1:21">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A123" s="44"/>
       <c r="B123" s="44"/>
       <c r="C123" s="44"/>
@@ -4324,7 +4451,7 @@
       <c r="T123" s="44"/>
       <c r="U123" s="45"/>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A124" s="44"/>
       <c r="B124" s="44"/>
       <c r="C124" s="44"/>
@@ -4347,7 +4474,7 @@
       <c r="T124" s="44"/>
       <c r="U124" s="45"/>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A125" s="44"/>
       <c r="B125" s="44"/>
       <c r="C125" s="44"/>
@@ -4370,7 +4497,7 @@
       <c r="T125" s="44"/>
       <c r="U125" s="45"/>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A126" s="44"/>
       <c r="B126" s="44"/>
       <c r="C126" s="44"/>
@@ -4393,7 +4520,7 @@
       <c r="T126" s="44"/>
       <c r="U126" s="45"/>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A127" s="44"/>
       <c r="B127" s="44"/>
       <c r="C127" s="44"/>
@@ -4416,7 +4543,7 @@
       <c r="T127" s="44"/>
       <c r="U127" s="45"/>
     </row>
-    <row r="128" spans="1:21">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A128" s="44"/>
       <c r="B128" s="44"/>
       <c r="C128" s="44"/>
@@ -4439,7 +4566,7 @@
       <c r="T128" s="44"/>
       <c r="U128" s="45"/>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A129" s="44"/>
       <c r="B129" s="44"/>
       <c r="C129" s="44"/>
@@ -4462,7 +4589,7 @@
       <c r="T129" s="44"/>
       <c r="U129" s="45"/>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A130" s="44"/>
       <c r="B130" s="44"/>
       <c r="C130" s="44"/>
@@ -4485,7 +4612,7 @@
       <c r="T130" s="44"/>
       <c r="U130" s="45"/>
     </row>
-    <row r="131" spans="1:21">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A131" s="44"/>
       <c r="B131" s="44"/>
       <c r="C131" s="44"/>
@@ -4508,7 +4635,7 @@
       <c r="T131" s="44"/>
       <c r="U131" s="45"/>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A132" s="44"/>
       <c r="B132" s="44"/>
       <c r="C132" s="44"/>
@@ -4531,7 +4658,7 @@
       <c r="T132" s="44"/>
       <c r="U132" s="45"/>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A133" s="44"/>
       <c r="B133" s="44"/>
       <c r="C133" s="44"/>
@@ -4554,7 +4681,7 @@
       <c r="T133" s="44"/>
       <c r="U133" s="45"/>
     </row>
-    <row r="134" spans="1:21">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A134" s="44"/>
       <c r="B134" s="44"/>
       <c r="C134" s="44"/>
@@ -4577,7 +4704,7 @@
       <c r="T134" s="44"/>
       <c r="U134" s="45"/>
     </row>
-    <row r="135" spans="1:21">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A135" s="44"/>
       <c r="B135" s="44"/>
       <c r="C135" s="44"/>
@@ -4597,7 +4724,7 @@
       <c r="Q135" s="45"/>
       <c r="U135" s="45"/>
     </row>
-    <row r="136" spans="1:21">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A136" s="44"/>
       <c r="B136" s="44"/>
       <c r="C136" s="44"/>
@@ -4617,7 +4744,7 @@
       <c r="Q136" s="45"/>
       <c r="U136" s="45"/>
     </row>
-    <row r="137" spans="1:21">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A137" s="44"/>
       <c r="B137" s="44"/>
       <c r="C137" s="44"/>
@@ -4637,7 +4764,7 @@
       <c r="Q137" s="45"/>
       <c r="U137" s="45"/>
     </row>
-    <row r="138" spans="1:21">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A138" s="44"/>
       <c r="B138" s="44"/>
       <c r="C138" s="44"/>
@@ -4657,7 +4784,7 @@
       <c r="Q138" s="45"/>
       <c r="U138" s="45"/>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A139" s="44"/>
       <c r="B139" s="44"/>
       <c r="C139" s="44"/>
@@ -4677,7 +4804,7 @@
       <c r="Q139" s="45"/>
       <c r="U139" s="45"/>
     </row>
-    <row r="140" spans="1:21">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A140" s="44"/>
       <c r="B140" s="44"/>
       <c r="C140" s="44"/>
@@ -4697,7 +4824,7 @@
       <c r="Q140" s="45"/>
       <c r="U140" s="45"/>
     </row>
-    <row r="141" spans="1:21">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A141" s="44"/>
       <c r="B141" s="44"/>
       <c r="C141" s="44"/>
@@ -4717,7 +4844,7 @@
       <c r="Q141" s="45"/>
       <c r="U141" s="45"/>
     </row>
-    <row r="142" spans="1:21">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A142" s="44"/>
       <c r="B142" s="44"/>
       <c r="C142" s="44"/>
@@ -4737,7 +4864,7 @@
       <c r="Q142" s="45"/>
       <c r="U142" s="45"/>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A143" s="44"/>
       <c r="B143" s="44"/>
       <c r="C143" s="44"/>
@@ -4757,7 +4884,7 @@
       <c r="Q143" s="45"/>
       <c r="U143" s="45"/>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A144" s="44"/>
       <c r="B144" s="44"/>
       <c r="C144" s="44"/>
@@ -4777,7 +4904,7 @@
       <c r="Q144" s="45"/>
       <c r="U144" s="45"/>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A145" s="44"/>
       <c r="B145" s="44"/>
       <c r="C145" s="44"/>
@@ -4797,7 +4924,7 @@
       <c r="Q145" s="45"/>
       <c r="U145" s="45"/>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A146" s="44"/>
       <c r="B146" s="44"/>
       <c r="C146" s="44"/>
@@ -4817,7 +4944,7 @@
       <c r="Q146" s="45"/>
       <c r="U146" s="45"/>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A147" s="44"/>
       <c r="B147" s="44"/>
       <c r="C147" s="44"/>
@@ -4837,7 +4964,7 @@
       <c r="Q147" s="45"/>
       <c r="U147" s="45"/>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A148" s="44"/>
       <c r="B148" s="44"/>
       <c r="C148" s="44"/>
@@ -4857,7 +4984,7 @@
       <c r="Q148" s="45"/>
       <c r="U148" s="45"/>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A149" s="44"/>
       <c r="B149" s="44"/>
       <c r="C149" s="44"/>
@@ -4877,7 +5004,7 @@
       <c r="Q149" s="45"/>
       <c r="U149" s="45"/>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A150" s="44"/>
       <c r="B150" s="44"/>
       <c r="C150" s="44"/>
@@ -4897,7 +5024,7 @@
       <c r="Q150" s="45"/>
       <c r="U150" s="45"/>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A151" s="44"/>
       <c r="B151" s="44"/>
       <c r="C151" s="44"/>
@@ -4917,7 +5044,7 @@
       <c r="Q151" s="45"/>
       <c r="U151" s="45"/>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A152" s="44"/>
       <c r="B152" s="44"/>
       <c r="C152" s="44"/>
@@ -4937,7 +5064,7 @@
       <c r="Q152" s="45"/>
       <c r="U152" s="45"/>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A153" s="44"/>
       <c r="B153" s="44"/>
       <c r="C153" s="44"/>
@@ -4957,7 +5084,7 @@
       <c r="Q153" s="45"/>
       <c r="U153" s="45"/>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A154" s="44"/>
       <c r="B154" s="44"/>
       <c r="C154" s="44"/>
@@ -4977,7 +5104,7 @@
       <c r="Q154" s="45"/>
       <c r="U154" s="45"/>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A155" s="44"/>
       <c r="B155" s="44"/>
       <c r="C155" s="44"/>
@@ -4997,7 +5124,7 @@
       <c r="Q155" s="45"/>
       <c r="U155" s="45"/>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A156" s="44"/>
       <c r="B156" s="44"/>
       <c r="C156" s="44"/>
@@ -5017,7 +5144,7 @@
       <c r="Q156" s="45"/>
       <c r="U156" s="45"/>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A157" s="44"/>
       <c r="B157" s="44"/>
       <c r="C157" s="44"/>
@@ -5037,7 +5164,7 @@
       <c r="Q157" s="45"/>
       <c r="U157" s="45"/>
     </row>
-    <row r="158" spans="1:21">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A158" s="44"/>
       <c r="B158" s="44"/>
       <c r="C158" s="44"/>
@@ -5057,7 +5184,7 @@
       <c r="Q158" s="45"/>
       <c r="U158" s="45"/>
     </row>
-    <row r="159" spans="1:21">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A159" s="44"/>
       <c r="B159" s="44"/>
       <c r="C159" s="44"/>
@@ -5077,7 +5204,7 @@
       <c r="Q159" s="45"/>
       <c r="U159" s="45"/>
     </row>
-    <row r="160" spans="1:21">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A160" s="44"/>
       <c r="B160" s="44"/>
       <c r="C160" s="44"/>
@@ -5097,7 +5224,7 @@
       <c r="Q160" s="45"/>
       <c r="U160" s="45"/>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A161" s="44"/>
       <c r="B161" s="44"/>
       <c r="C161" s="44"/>
@@ -5117,7 +5244,7 @@
       <c r="Q161" s="45"/>
       <c r="U161" s="45"/>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A162" s="44"/>
       <c r="B162" s="44"/>
       <c r="C162" s="44"/>
@@ -5137,7 +5264,7 @@
       <c r="Q162" s="45"/>
       <c r="U162" s="45"/>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A163" s="44"/>
       <c r="B163" s="44"/>
       <c r="C163" s="44"/>
@@ -5157,7 +5284,7 @@
       <c r="Q163" s="45"/>
       <c r="U163" s="45"/>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A164" s="44"/>
       <c r="B164" s="44"/>
       <c r="C164" s="44"/>
@@ -5177,7 +5304,7 @@
       <c r="Q164" s="45"/>
       <c r="U164" s="45"/>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A165" s="44"/>
       <c r="B165" s="44"/>
       <c r="C165" s="44"/>
@@ -5197,7 +5324,7 @@
       <c r="Q165" s="45"/>
       <c r="U165" s="45"/>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A166" s="44"/>
       <c r="B166" s="44"/>
       <c r="C166" s="44"/>
@@ -5217,7 +5344,7 @@
       <c r="Q166" s="45"/>
       <c r="U166" s="45"/>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A167" s="44"/>
       <c r="B167" s="44"/>
       <c r="C167" s="44"/>
@@ -5237,7 +5364,7 @@
       <c r="Q167" s="45"/>
       <c r="U167" s="45"/>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A168" s="44"/>
       <c r="B168" s="44"/>
       <c r="C168" s="44"/>
@@ -5257,7 +5384,7 @@
       <c r="Q168" s="45"/>
       <c r="U168" s="45"/>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A169" s="44"/>
       <c r="B169" s="44"/>
       <c r="C169" s="44"/>
@@ -5283,7 +5410,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576 T1:T1048576 G1:G1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1:T1048576 G1:G1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
@@ -5308,14 +5435,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="26.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.625" bestFit="1" customWidth="1"/>
@@ -5335,7 +5462,7 @@
     <col min="18" max="18" width="4.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="62" t="s">
         <v>54</v>
       </c>
@@ -5391,7 +5518,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="30" customHeight="1">
+    <row r="2" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="66"/>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -5411,7 +5538,7 @@
       <c r="Q2" s="75"/>
       <c r="R2" s="75"/>
     </row>
-    <row r="3" spans="1:18" ht="30" customHeight="1">
+    <row r="3" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="66"/>
       <c r="B3" s="67"/>
       <c r="C3" s="67"/>
@@ -5431,7 +5558,7 @@
       <c r="Q3" s="75"/>
       <c r="R3" s="75"/>
     </row>
-    <row r="4" spans="1:18" ht="30" customHeight="1">
+    <row r="4" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="66"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
@@ -5458,14 +5585,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="12.25" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
@@ -5477,22 +5604,22 @@
     <col min="9" max="9" width="10.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="85" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-    </row>
-    <row r="2" spans="1:11" ht="17.25">
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>35</v>
       </c>
@@ -5527,9 +5654,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="17.25">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
+    <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
@@ -5540,9 +5667,9 @@
       <c r="J3" s="27"/>
       <c r="K3" s="28"/>
     </row>
-    <row r="4" spans="1:11" ht="17.25">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
+    <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="20"/>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
@@ -5553,9 +5680,9 @@
       <c r="J4" s="27"/>
       <c r="K4" s="28"/>
     </row>
-    <row r="5" spans="1:11" ht="17.25">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
+    <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="20"/>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -5566,9 +5693,9 @@
       <c r="J5" s="27"/>
       <c r="K5" s="28"/>
     </row>
-    <row r="6" spans="1:11" ht="17.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
+    <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
       <c r="C6" s="20"/>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
@@ -5579,9 +5706,9 @@
       <c r="J6" s="27"/>
       <c r="K6" s="28"/>
     </row>
-    <row r="7" spans="1:11" ht="17.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
+    <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
       <c r="C7" s="20"/>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -5592,9 +5719,9 @@
       <c r="J7" s="27"/>
       <c r="K7" s="28"/>
     </row>
-    <row r="8" spans="1:11" ht="17.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="87"/>
+    <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
       <c r="C8" s="20"/>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
@@ -5605,9 +5732,9 @@
       <c r="J8" s="27"/>
       <c r="K8" s="28"/>
     </row>
-    <row r="9" spans="1:11" ht="17.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="87"/>
+    <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A9" s="89"/>
+      <c r="B9" s="89"/>
       <c r="C9" s="20"/>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
@@ -5618,9 +5745,9 @@
       <c r="J9" s="27"/>
       <c r="K9" s="28"/>
     </row>
-    <row r="10" spans="1:11" ht="17.25">
-      <c r="A10" s="86"/>
-      <c r="B10" s="86"/>
+    <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="20"/>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
@@ -5631,7 +5758,7 @@
       <c r="J10" s="27"/>
       <c r="K10" s="28"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5">
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="24"/>
       <c r="B11" s="24"/>
       <c r="C11" s="20"/>
@@ -5658,14 +5785,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -5680,39 +5807,39 @@
     <col min="13" max="13" width="47.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="93"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -5753,27 +5880,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="181.5">
-      <c r="A4" s="92">
+    <row r="4" spans="1:13" ht="181.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="83">
         <v>1</v>
       </c>
-      <c r="B4" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="92" t="s">
+      <c r="B4" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="83" t="s">
         <v>69</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>72</v>
@@ -5789,10 +5916,10 @@
         <v>75</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -5807,7 +5934,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -5822,7 +5949,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -5837,7 +5964,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -5852,7 +5979,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -5867,7 +5994,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -5882,7 +6009,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -5897,7 +6024,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -5912,7 +6039,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -5927,7 +6054,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -5942,7 +6069,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -5957,7 +6084,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -5996,14 +6123,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6018,39 +6145,39 @@
     <col min="13" max="13" width="49.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="93"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6091,27 +6218,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="181.5">
-      <c r="A4" s="92">
+    <row r="4" spans="1:13" ht="181.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="83">
         <v>1</v>
       </c>
-      <c r="B4" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="92" t="s">
+      <c r="B4" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="83" t="s">
         <v>69</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>72</v>
@@ -6127,10 +6254,10 @@
         <v>75</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6145,7 +6272,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6160,7 +6287,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6175,7 +6302,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6190,7 +6317,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6205,7 +6332,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6220,7 +6347,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6235,7 +6362,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6250,7 +6377,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6265,7 +6392,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6280,7 +6407,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6295,7 +6422,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6334,14 +6461,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="3" width="6.375" customWidth="1"/>
@@ -6356,39 +6483,39 @@
     <col min="13" max="13" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="93"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6429,27 +6556,27 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="198">
-      <c r="A4" s="92">
+    <row r="4" spans="1:13" ht="181.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="83">
         <v>1</v>
       </c>
-      <c r="B4" s="92" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="92" t="s">
+      <c r="B4" s="83" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="83" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="93" t="s">
+      <c r="D4" s="84" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="92" t="s">
+      <c r="E4" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="92" t="s">
+      <c r="F4" s="83" t="s">
         <v>69</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>72</v>
@@ -6467,10 +6594,10 @@
         <v>75</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="16.5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6485,7 +6612,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6500,7 +6627,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6515,7 +6642,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6530,7 +6657,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6545,7 +6672,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6560,7 +6687,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6575,7 +6702,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6590,7 +6717,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6605,7 +6732,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6620,7 +6747,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6635,7 +6762,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6655,7 +6782,7 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
@@ -6674,14 +6801,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.75" customWidth="1"/>
     <col min="2" max="2" width="10.125" customWidth="1"/>
@@ -6698,39 +6825,39 @@
     <col min="13" max="13" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="88" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
-      <c r="H1" s="88"/>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="89"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="90"/>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
-      <c r="G2" s="90"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="90"/>
-      <c r="J2" s="90"/>
-      <c r="K2" s="90"/>
-      <c r="L2" s="90"/>
-      <c r="M2" s="91"/>
-    </row>
-    <row r="3" spans="1:13" ht="16.5">
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="91"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A2" s="92"/>
+      <c r="B2" s="92"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="93"/>
+    </row>
+    <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
         <v>23</v>
       </c>
@@ -6771,7 +6898,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="16.5">
+    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="9"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -6786,7 +6913,7 @@
       <c r="L4" s="9"/>
       <c r="M4" s="11"/>
     </row>
-    <row r="5" spans="1:13" ht="16.5">
+    <row r="5" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -6801,7 +6928,7 @@
       <c r="L5" s="9"/>
       <c r="M5" s="11"/>
     </row>
-    <row r="6" spans="1:13" ht="16.5">
+    <row r="6" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="9"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -6816,7 +6943,7 @@
       <c r="L6" s="12"/>
       <c r="M6" s="9"/>
     </row>
-    <row r="7" spans="1:13" ht="16.5">
+    <row r="7" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="9"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -6831,7 +6958,7 @@
       <c r="L7" s="14"/>
       <c r="M7" s="17"/>
     </row>
-    <row r="8" spans="1:13" ht="16.5">
+    <row r="8" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="9"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -6846,7 +6973,7 @@
       <c r="L8" s="9"/>
       <c r="M8" s="11"/>
     </row>
-    <row r="9" spans="1:13" ht="16.5">
+    <row r="9" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="9"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -6861,7 +6988,7 @@
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:13" ht="16.5">
+    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -6876,7 +7003,7 @@
       <c r="L10" s="9"/>
       <c r="M10" s="9"/>
     </row>
-    <row r="11" spans="1:13" ht="16.5">
+    <row r="11" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -6891,7 +7018,7 @@
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:13" ht="16.5">
+    <row r="12" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -6906,7 +7033,7 @@
       <c r="L12" s="9"/>
       <c r="M12" s="9"/>
     </row>
-    <row r="13" spans="1:13" ht="16.5">
+    <row r="13" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -6921,7 +7048,7 @@
       <c r="L13" s="9"/>
       <c r="M13" s="9"/>
     </row>
-    <row r="14" spans="1:13" ht="16.5">
+    <row r="14" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -6936,7 +7063,7 @@
       <c r="L14" s="9"/>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:13" ht="16.5">
+    <row r="15" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -6951,7 +7078,7 @@
       <c r="L15" s="9"/>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:13" ht="16.5">
+    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="9"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -6990,14 +7117,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.125" customWidth="1"/>
@@ -7008,7 +7135,7 @@
     <col min="8" max="8" width="15.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -7034,7 +7161,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="1" customFormat="1">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7044,7 +7171,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -7054,7 +7181,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -7064,7 +7191,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7074,7 +7201,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -7084,7 +7211,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -7094,7 +7221,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -7104,7 +7231,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -7114,7 +7241,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -7124,7 +7251,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -7134,7 +7261,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -7144,7 +7271,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -7154,7 +7281,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -7164,7 +7291,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -7174,7 +7301,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -7184,7 +7311,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -7194,7 +7321,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -7204,7 +7331,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
